--- a/biology/Histoire de la zoologie et de la botanique/William_Thomas_Blanford/William_Thomas_Blanford.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Thomas_Blanford/William_Thomas_Blanford.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Thomas Blanford (7 octobre 1832-23 juin 1905) est un géologue et naturaliste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Blanford naît à Londres. Il étudie dans des écoles privées à Brighton et Paris puis en vue d'adopter une carrière commerciale il passe 2 ans à Civitavecchia.  De retour au Royaume-Uni en 1851 il entre à l'école royale des mines, que son jeune frère, Henry F. Blanford (1834-1893), qui prendra la tête du département de météorologie indienne, a déjà joint. Puis il passe 10 ans à l'école des mines de Freiberg (Saxe) et vers la fin de 1854 lui et son frère obtiennent des postes au levé géologique d'Inde. Il y reste 27 ans jusqu'à sa retraite en 1882.
 Il travaille dans diverses parties de l'Inde, à Raniganj, dans les mines de charbon de Bombay et dans celles situées près de Talcher où des blocs erratiques, considérés amenés là par de la glace, sont découverts dans les strates du Talcher. Une découverte qui sera confirmée pas les observations d'autres géologues dans d'autres régions.
@@ -545,13 +559,15 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Observations on the Geology and Zoology of Abyssinia
 1870 : Observations sur la géologie et la zoologie de l'Abyssinie
 Manual of the Geology of India
 1879 : avec Henry Benedict Medlicott, Manuel de géologie de l'Inde.
-1889-1898 : avec Eugene William Oates (1845-1911), Fauna of British India (birds)[1] (quatre volumes, Taylor &amp; Francis, Londres).</t>
+1889-1898 : avec Eugene William Oates (1845-1911), Fauna of British India (birds) (quatre volumes, Taylor &amp; Francis, Londres).</t>
         </is>
       </c>
     </row>
@@ -579,7 +595,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Niverolle de Blanford (Pyrgilauda blanfordi) (Hume, 1876)</t>
         </is>
@@ -609,7 +627,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Exemplaire numérique sur Internet Archive : volume 1, volume 2, volume 3 et volume 4.
@@ -641,7 +661,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> (en) « William Thomas Blanford », dans Encyclopædia Britannica [détail de l’édition], 1911 (lire sur Wikisource).</t>
         </is>
